--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr10_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr10_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="13.64453125" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="14.64453125" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
-    <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="14.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.17350412817251704</v>
+        <v>0.30648857880903729</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.23100455151135524</v>
+        <v>0.60832320547726393</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.051165993463930914</v>
+        <v>0.14070392374521462</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0044523576758811511</v>
+        <v>0.017065805808334215</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0012471935903258945</v>
+        <v>0.13659275253245687</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0010077757923873133</v>
+        <v>0.0017153001489687877</v>
       </c>
       <c r="H3" s="0">
-        <v>-5.4893661155947676e-05</v>
+        <v>0.0004063532108794448</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0033828560658617146</v>
+        <v>-0.026305746290567943</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.0037008595883928352</v>
+        <v>0.03165623751294061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.36734814194843823</v>
+        <v>0.68687488572269739</v>
       </c>
       <c r="C4" s="0">
-        <v>0.12973812474722468</v>
+        <v>-0.019375226223014779</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00062302758508922063</v>
+        <v>-0.027999038568049764</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00017421816899061194</v>
+        <v>-0.00091868623488234994</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00019816682852198759</v>
+        <v>-0.001248684804495718</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0063050674362290096</v>
+        <v>0.054623201155498964</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00046425363417115214</v>
+        <v>0.07494348157111938</v>
       </c>
       <c r="K4" s="0">
-        <v>8.6787207034755287e-05</v>
+        <v>-0.0014733666507422694</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.36731677125197226</v>
+        <v>0.6011742449067915</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.13585435856785388</v>
+        <v>-0.009293165006027844</v>
       </c>
       <c r="E5" s="0">
-        <v>0.013617033295122316</v>
+        <v>0.02404149637652651</v>
       </c>
       <c r="F5" s="0">
-        <v>0.058937488615344924</v>
+        <v>-0.088922200031991624</v>
       </c>
       <c r="G5" s="0">
-        <v>0.010178119569864738</v>
+        <v>0.019455059672817548</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0065080595225297955</v>
+        <v>0.0032195511973603362</v>
       </c>
       <c r="I5" s="0">
-        <v>0.037912799849507406</v>
+        <v>-0.01808146525778823</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0086694870190187068</v>
+        <v>-0.01611991776680255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.34053584771519252</v>
+        <v>0.36594956493667746</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.064592722307409117</v>
+        <v>-0.20407531591519362</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.016638155239412068</v>
+        <v>-0.0028783297011526474</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0032226350000960067</v>
+        <v>-0.0027600469728307482</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0072582696075797933</v>
+        <v>-0.015445629962120615</v>
       </c>
       <c r="I6" s="0">
-        <v>0.014752803291038594</v>
+        <v>-0.010701791918249116</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0040600643674970627</v>
+        <v>0.00063643449943273644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29809441866456898</v>
+        <v>0.10679144641517241</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.15776805083638687</v>
+        <v>0.06971965731287183</v>
       </c>
       <c r="E7" s="0">
-        <v>0.049004878282165994</v>
+        <v>-0.0055234562928256885</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.199153977977305</v>
+        <v>-0.30277399251591047</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0018935043799815669</v>
+        <v>-0.024171709115898145</v>
       </c>
       <c r="H7" s="0">
-        <v>0.00064767657299667921</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0095772442768068192</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.043024316868042867</v>
+        <v>0.0035913820902574445</v>
       </c>
     </row>
     <row r="8">
